--- a/difference.xlsx
+++ b/difference.xlsx
@@ -482,28 +482,28 @@
         <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.176334496910452</v>
+        <v>-1.58427067387433</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.86811062122346</v>
+        <v>-1.55823762283916</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.51014063066668</v>
+        <v>-1.8594562481502</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.01725911908152</v>
+        <v>-1.38884823425093</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.14639412914559</v>
+        <v>-0.532844697333509</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.285753975543816</v>
+        <v>0.316589588352655</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.0120855876517811</v>
+        <v>-0.0881953416220385</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.0376498539184684</v>
+        <v>-0.0312560971369653</v>
       </c>
     </row>
     <row r="3">
@@ -517,28 +517,28 @@
         <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>2.89540272213793</v>
+        <v>1.1492526836084</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.0414113228014541</v>
+        <v>-0.576236292157842</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0500858285456134</v>
+        <v>-0.709953940959366</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.765709036426101</v>
+        <v>-0.0171396554617902</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.157565647472877</v>
+        <v>0.570090196469453</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.884739247228626</v>
+        <v>-0.170779135645081</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.394064714746707</v>
+        <v>-0.259414798603373</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.0303878620586643</v>
+        <v>0.0183652905250097</v>
       </c>
     </row>
     <row r="4">
@@ -937,28 +937,28 @@
         <v>12</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.99569309249176</v>
+        <v>-1.6574792309261</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0333996033938129</v>
+        <v>-0.121902428865504</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.151123254995888</v>
+        <v>0.159429239934339</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.127746829392232</v>
+        <v>-0.247905325525954</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.908866036439843</v>
+        <v>-1.02297244857009</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.0990281441027256</v>
+        <v>-0.210644691789799</v>
       </c>
       <c r="J15" t="n">
-        <v>0.316206479416988</v>
+        <v>0.105446809303397</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.112322004580264</v>
+        <v>-0.154681400382435</v>
       </c>
     </row>
     <row r="16">
